--- a/Menutree_Sample.xlsx
+++ b/Menutree_Sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,86 +242,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_Canada</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang_Taiwan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_Hongkong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_America</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Australia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang_Ireland</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_India</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_NewZealand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Singapore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Safrica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Egypt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Israel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang_Bulgaria</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_Catalonian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Czekh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang_Denmark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_Austria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Switzerland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Germany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Liechtenstein</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang_Greece</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_Belgium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang_France</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,34 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_INDONESIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Italy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Japan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Lithuania</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_LATVIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Norway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang_Holland</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_Brazil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang_Portuguesa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,35 +298,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_SLOVENIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Serbia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lang_Sweden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang_Thailand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Turkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Ukraine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_Vietnam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang_belgium</t>
+    <t>lang_Slovenia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang_SaudiArabia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang_Chech</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -491,33 +375,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,15 +398,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,10 +796,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -956,16 +811,16 @@
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="49.75" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="14.625" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
     <col min="13" max="13" width="18.625" customWidth="1"/>
     <col min="14" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="18.25" customWidth="1"/>
     <col min="18" max="18" width="15.75" customWidth="1"/>
-    <col min="19" max="19" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="12.75" customWidth="1"/>
     <col min="21" max="21" width="14.625" customWidth="1"/>
     <col min="22" max="22" width="17.125" customWidth="1"/>
@@ -973,38 +828,9 @@
     <col min="24" max="24" width="15" customWidth="1"/>
     <col min="25" max="25" width="16.25" customWidth="1"/>
     <col min="26" max="26" width="18.625" customWidth="1"/>
-    <col min="27" max="27" width="16.5" customWidth="1"/>
-    <col min="28" max="28" width="21.375" customWidth="1"/>
-    <col min="29" max="29" width="17.25" customWidth="1"/>
-    <col min="30" max="30" width="12.75" customWidth="1"/>
-    <col min="31" max="31" width="16.375" customWidth="1"/>
-    <col min="32" max="32" width="14.375" customWidth="1"/>
-    <col min="33" max="33" width="16.875" customWidth="1"/>
-    <col min="34" max="34" width="15" customWidth="1"/>
-    <col min="35" max="35" width="15.625" customWidth="1"/>
-    <col min="36" max="36" width="13.5" customWidth="1"/>
-    <col min="37" max="37" width="12.625" customWidth="1"/>
-    <col min="38" max="38" width="15" customWidth="1"/>
-    <col min="39" max="39" width="22.125" customWidth="1"/>
-    <col min="40" max="40" width="13.5" customWidth="1"/>
-    <col min="41" max="41" width="17.125" customWidth="1"/>
-    <col min="42" max="42" width="16" customWidth="1"/>
-    <col min="43" max="43" width="15.75" customWidth="1"/>
-    <col min="44" max="44" width="16.25" customWidth="1"/>
-    <col min="45" max="45" width="17.25" customWidth="1"/>
-    <col min="46" max="46" width="19.5" customWidth="1"/>
-    <col min="47" max="47" width="14.5" customWidth="1"/>
-    <col min="48" max="48" width="17" customWidth="1"/>
-    <col min="49" max="49" width="16" customWidth="1"/>
-    <col min="50" max="50" width="14.5" customWidth="1"/>
-    <col min="51" max="51" width="16.375" customWidth="1"/>
-    <col min="52" max="52" width="18.125" customWidth="1"/>
-    <col min="53" max="53" width="16.875" customWidth="1"/>
-    <col min="54" max="54" width="15.625" customWidth="1"/>
-    <col min="55" max="55" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1033,145 +859,58 @@
         <v>56</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC1" s="8" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="2" spans="1:55" ht="15" customHeight="1">
+    <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1194,145 +933,58 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M2" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N2" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O2" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P2" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R2" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S2" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T2" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U2" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V2" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W2" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X2" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL2" s="1">
         <v>18</v>
       </c>
-      <c r="AM2" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:55" ht="15" customHeight="1">
+    <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1355,145 +1007,58 @@
         <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M3" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N3" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O3" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P3" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R3" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S3" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T3" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U3" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V3" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W3" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X3" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL3" s="1">
         <v>18</v>
       </c>
-      <c r="AM3" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:55" ht="15" customHeight="1">
+    <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1516,145 +1081,58 @@
         <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M4" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N4" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O4" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P4" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R4" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S4" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T4" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U4" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V4" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W4" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X4" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y4" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z4" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL4" s="1">
         <v>18</v>
       </c>
-      <c r="AM4" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:55" ht="15" customHeight="1">
+    <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1677,145 +1155,58 @@
         <v>4</v>
       </c>
       <c r="J5" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N5" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O5" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P5" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R5" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S5" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T5" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U5" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V5" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W5" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X5" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y5" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL5" s="1">
         <v>18</v>
       </c>
-      <c r="AM5" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:55" ht="15" customHeight="1">
+    <row r="6" spans="1:26" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1838,145 +1229,58 @@
         <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M6" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N6" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O6" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P6" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R6" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S6" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T6" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U6" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V6" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W6" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X6" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y6" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z6" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL6" s="1">
         <v>18</v>
       </c>
-      <c r="AM6" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:55" ht="15" customHeight="1">
+    <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1999,145 +1303,58 @@
         <v>6</v>
       </c>
       <c r="J7" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L7" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O7" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P7" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R7" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S7" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T7" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U7" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V7" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W7" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X7" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y7" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z7" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL7" s="1">
         <v>18</v>
       </c>
-      <c r="AM7" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:55" ht="15" customHeight="1">
+    <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2160,145 +1377,58 @@
         <v>7</v>
       </c>
       <c r="J8" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L8" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M8" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P8" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R8" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S8" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T8" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U8" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V8" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W8" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X8" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y8" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z8" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL8" s="1">
         <v>18</v>
       </c>
-      <c r="AM8" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:55" ht="15" customHeight="1">
+    <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2321,145 +1451,58 @@
         <v>8</v>
       </c>
       <c r="J9" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O9" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P9" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R9" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S9" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T9" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U9" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V9" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W9" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X9" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y9" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z9" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL9" s="1">
         <v>18</v>
       </c>
-      <c r="AM9" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:55" ht="15" customHeight="1">
+    <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,145 +1525,58 @@
         <v>9</v>
       </c>
       <c r="J10" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O10" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P10" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R10" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S10" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T10" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U10" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V10" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W10" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X10" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y10" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z10" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL10" s="1">
         <v>18</v>
       </c>
-      <c r="AM10" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW10" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY10" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ10" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA10" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB10" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC10" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" spans="1:55" ht="15" customHeight="1">
+    <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -2643,142 +1599,55 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L11" s="1">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M11" s="1">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="N11" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O11" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="P11" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R11" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="S11" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="T11" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="U11" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="V11" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="W11" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="X11" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y11" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z11" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>24</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>22</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL11" s="1">
         <v>18</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>17</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>11</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>9</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>7</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY11" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>4</v>
-      </c>
-      <c r="BA11" s="1">
-        <v>3</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
